--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4724" uniqueCount="82">
   <si>
     <t>Дата</t>
   </si>
@@ -905,11 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1837"/>
+  <dimension ref="B1:J2041"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <pane ySplit="1" topLeftCell="A2013" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1991" sqref="B1991:B2041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -54196,6 +54196,5922 @@
         <v>0</v>
       </c>
       <c r="J1837" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1838" spans="2:10">
+      <c r="B1838" s="5">
+        <v>43714</v>
+      </c>
+      <c r="C1838" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1838" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1838" s="15">
+        <v>0</v>
+      </c>
+      <c r="F1838" s="17">
+        <v>0</v>
+      </c>
+      <c r="G1838" s="12">
+        <v>0</v>
+      </c>
+      <c r="H1838" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1838" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1838" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839" spans="2:10">
+      <c r="B1839" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1839" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1839" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1839" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1839" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1839" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1839" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1839" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1839" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1840" spans="2:10">
+      <c r="B1840" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1840" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1840" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1840" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1840" s="20">
+        <v>14.147362178458586</v>
+      </c>
+      <c r="G1840" s="18">
+        <v>32.437916815723938</v>
+      </c>
+      <c r="H1840" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1840" s="10">
+        <v>10.596831080936949</v>
+      </c>
+      <c r="J1840" s="10">
+        <v>5.2716108057476792</v>
+      </c>
+    </row>
+    <row r="1841" spans="2:10">
+      <c r="B1841" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1841" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1841" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1841" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1841" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1841" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1841" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1841" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1841" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842" spans="2:10">
+      <c r="B1842" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1842" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1842" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1842" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1842" s="20">
+        <v>4.7588421593788706</v>
+      </c>
+      <c r="G1842" s="18">
+        <v>32.499536687880777</v>
+      </c>
+      <c r="H1842" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1842" s="10">
+        <v>2.0346991548634938</v>
+      </c>
+      <c r="J1842" s="10">
+        <v>0.99385159955025815</v>
+      </c>
+    </row>
+    <row r="1843" spans="2:10">
+      <c r="B1843" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1843" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1843" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1843" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1843" s="20">
+        <v>2.825895569120509</v>
+      </c>
+      <c r="G1843" s="18">
+        <v>33.50048677564439</v>
+      </c>
+      <c r="H1843" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1843" s="10">
+        <v>2.7007414829336467</v>
+      </c>
+      <c r="J1843" s="10">
+        <v>1.3144340622577921</v>
+      </c>
+    </row>
+    <row r="1844" spans="2:10">
+      <c r="B1844" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1844" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1844" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1844" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1844" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1844" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1844" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1844" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1844" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1845" spans="2:10">
+      <c r="B1845" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1845" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1845" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1845" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1845" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1845" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1845" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1845" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1845" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846" spans="2:10">
+      <c r="B1846" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1846" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1846" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1846" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1846" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1846" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1846" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1846" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1846" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847" spans="2:10">
+      <c r="B1847" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1847" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1847" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1847" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1847" s="20">
+        <v>9.482462804938276</v>
+      </c>
+      <c r="G1847" s="18">
+        <v>23.161532834407396</v>
+      </c>
+      <c r="H1847" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1847" s="10">
+        <v>9.2498221014891158</v>
+      </c>
+      <c r="J1847" s="10">
+        <v>6.0356733398727309</v>
+      </c>
+    </row>
+    <row r="1848" spans="2:10">
+      <c r="B1848" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1848" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1848" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1848" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1848" s="20">
+        <v>10.364769790837236</v>
+      </c>
+      <c r="G1848" s="18">
+        <v>22.345369825556432</v>
+      </c>
+      <c r="H1848" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1848" s="10">
+        <v>7.9424947962915731</v>
+      </c>
+      <c r="J1848" s="10">
+        <v>5.2799650722749449</v>
+      </c>
+    </row>
+    <row r="1849" spans="2:10">
+      <c r="B1849" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1849" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1849" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1849" s="7">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="F1849" s="20">
+        <v>23.174032677687528</v>
+      </c>
+      <c r="G1849" s="18">
+        <v>21.497287510304261</v>
+      </c>
+      <c r="H1849" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1849" s="10">
+        <v>21.861434181717041</v>
+      </c>
+      <c r="J1849" s="10">
+        <v>14.424796219975049</v>
+      </c>
+    </row>
+    <row r="1850" spans="2:10">
+      <c r="B1850" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1850" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1850" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1850" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1850" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1850" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1850" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1850" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1850" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="2:10">
+      <c r="B1851" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1851" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1851" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1851" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1851" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1851" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1851" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1851" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1851" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="2:10">
+      <c r="B1852" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1852" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1852" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1852" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1852" s="20">
+        <v>22.154814563522891</v>
+      </c>
+      <c r="G1852" s="18">
+        <v>27.207394851364029</v>
+      </c>
+      <c r="H1852" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1852" s="10">
+        <v>16.425815526884865</v>
+      </c>
+      <c r="J1852" s="10">
+        <v>9.9802975320685459</v>
+      </c>
+    </row>
+    <row r="1853" spans="2:10">
+      <c r="B1853" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1853" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1853" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1853" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1853" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1853" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1853" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1853" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1853" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="2:10">
+      <c r="B1854" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1854" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1854" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1854" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1854" s="20">
+        <v>12.325021283782338</v>
+      </c>
+      <c r="G1854" s="18">
+        <v>24.036182738173324</v>
+      </c>
+      <c r="H1854" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1854" s="10">
+        <v>10.424538571983168</v>
+      </c>
+      <c r="J1854" s="10">
+        <v>6.6652018922061878</v>
+      </c>
+    </row>
+    <row r="1855" spans="2:10">
+      <c r="B1855" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1855" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1855" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1855" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1855" s="20">
+        <v>9.4438841861690168</v>
+      </c>
+      <c r="G1855" s="18">
+        <v>23.762142045875123</v>
+      </c>
+      <c r="H1855" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1855" s="10">
+        <v>10.149026526278004</v>
+      </c>
+      <c r="J1855" s="10">
+        <v>6.4861762287052729</v>
+      </c>
+    </row>
+    <row r="1856" spans="2:10">
+      <c r="B1856" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1856" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1856" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1856" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1856" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1856" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1856" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1856" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1856" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857" spans="2:10">
+      <c r="B1857" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1857" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1857" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1857" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1857" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1857" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1857" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1857" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1857" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858" spans="2:10">
+      <c r="B1858" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1858" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1858" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1858" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1858" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1858" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1858" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1858" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1858" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859" spans="2:10">
+      <c r="B1859" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1859" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1859" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1859" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1859" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1859" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1859" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1859" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1859" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860" spans="2:10">
+      <c r="B1860" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1860" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1860" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1860" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1860" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1860" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1860" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1860" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1860" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861" spans="2:10">
+      <c r="B1861" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1861" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1861" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1861" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1861" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1861" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1861" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1861" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1861" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862" spans="2:10">
+      <c r="B1862" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1862" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1862" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1862" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1862" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1862" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1862" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1862" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1862" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="2:10">
+      <c r="B1863" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1863" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1863" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1863" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1863" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1863" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1863" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1863" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1863" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864" spans="2:10">
+      <c r="B1864" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1864" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1864" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1864" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1864" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1864" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1864" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1864" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1864" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865" spans="2:10">
+      <c r="B1865" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1865" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1865" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1865" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1865" s="20">
+        <v>15.303214000290781</v>
+      </c>
+      <c r="G1865" s="18">
+        <v>4.8442354276117356</v>
+      </c>
+      <c r="H1865" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1865" s="10">
+        <v>11.90507773207454</v>
+      </c>
+      <c r="J1865" s="10">
+        <v>11.085656949554489</v>
+      </c>
+    </row>
+    <row r="1866" spans="2:10">
+      <c r="B1866" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1866" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1866" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1866" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1866" s="20">
+        <v>11.071724958087788</v>
+      </c>
+      <c r="G1866" s="18">
+        <v>4.6684607055160683</v>
+      </c>
+      <c r="H1866" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1866" s="10">
+        <v>7.6321305040465921</v>
+      </c>
+      <c r="J1866" s="10">
+        <v>7.1362187846984684</v>
+      </c>
+    </row>
+    <row r="1867" spans="2:10">
+      <c r="B1867" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1867" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1867" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1867" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1867" s="20">
+        <v>36.560149439865199</v>
+      </c>
+      <c r="G1867" s="18">
+        <v>4.0917454279497321</v>
+      </c>
+      <c r="H1867" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1867" s="10">
+        <v>25.635947130244141</v>
+      </c>
+      <c r="J1867" s="10">
+        <v>24.139851110349937</v>
+      </c>
+    </row>
+    <row r="1868" spans="2:10">
+      <c r="B1868" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1868" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1868" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1868" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1868" s="20">
+        <v>15.44209635670647</v>
+      </c>
+      <c r="G1868" s="18">
+        <v>2.4005240048525991</v>
+      </c>
+      <c r="H1868" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1868" s="10">
+        <v>13.008009987821076</v>
+      </c>
+      <c r="J1868" s="10">
+        <v>12.578976333505567</v>
+      </c>
+    </row>
+    <row r="1869" spans="2:10">
+      <c r="B1869" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1869" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1869" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1869" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1869" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1869" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1869" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1869" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1869" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870" spans="2:10">
+      <c r="B1870" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1870" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1870" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1870" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1870" s="20">
+        <v>9.3682258436161199</v>
+      </c>
+      <c r="G1870" s="18">
+        <v>3.0867753580142505</v>
+      </c>
+      <c r="H1870" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1870" s="10">
+        <v>9.9714785745725791</v>
+      </c>
+      <c r="J1870" s="10">
+        <v>9.5396089116607499</v>
+      </c>
+    </row>
+    <row r="1871" spans="2:10">
+      <c r="B1871" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1871" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1871" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1871" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1871" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1871" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1871" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1871" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1871" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872" spans="2:10">
+      <c r="B1872" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1872" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1872" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1872" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1872" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1872" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1872" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1872" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1872" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="2:10">
+      <c r="B1873" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1873" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1873" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1873" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1873" s="20">
+        <v>8.4894668018038217</v>
+      </c>
+      <c r="G1873" s="18">
+        <v>3.3468407383626442</v>
+      </c>
+      <c r="H1873" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1873" s="10">
+        <v>0.28919996827491051</v>
+      </c>
+      <c r="J1873" s="10">
+        <v>0.2741245833399486</v>
+      </c>
+    </row>
+    <row r="1874" spans="2:10">
+      <c r="B1874" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1874" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1874" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1874" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1874" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1874" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1874" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1874" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1874" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="2:10">
+      <c r="B1875" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1875" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1875" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1875" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1875" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1875" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1875" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1875" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1875" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="2:10">
+      <c r="B1876" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1876" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1876" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1876" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1876" s="20">
+        <v>33.228858984054121</v>
+      </c>
+      <c r="G1876" s="18">
+        <v>4.2499171710249612</v>
+      </c>
+      <c r="H1876" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1876" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1876" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877" spans="2:10">
+      <c r="B1877" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1877" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1877" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1877" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1877" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1877" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1877" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1877" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1877" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="2:10">
+      <c r="B1878" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1878" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1878" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1878" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1878" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1878" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1878" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1878" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1878" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="2:10">
+      <c r="B1879" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1879" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1879" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1879" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1879" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1879" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1879" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1879" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1879" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="2:10">
+      <c r="B1880" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1880" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1880" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1880" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1880" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1880" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1880" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1880" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1880" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="2:10">
+      <c r="B1881" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1881" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1881" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1881" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1881" s="20">
+        <v>17.041379286149066</v>
+      </c>
+      <c r="G1881" s="18">
+        <v>2.6677380062015033</v>
+      </c>
+      <c r="H1881" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1881" s="10">
+        <v>5.8696642064342601</v>
+      </c>
+      <c r="J1881" s="10">
+        <v>5.6664303107239311</v>
+      </c>
+    </row>
+    <row r="1882" spans="2:10">
+      <c r="B1882" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1882" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1882" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1882" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1882" s="20">
+        <v>32.604544945148021</v>
+      </c>
+      <c r="G1882" s="18">
+        <v>2.1514997472375796</v>
+      </c>
+      <c r="H1882" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1882" s="10">
+        <v>33.733919274072989</v>
+      </c>
+      <c r="J1882" s="10">
+        <v>32.723185739221947</v>
+      </c>
+    </row>
+    <row r="1883" spans="2:10">
+      <c r="B1883" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1883" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1883" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1883" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1883" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1883" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1883" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1883" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1883" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="2:10">
+      <c r="B1884" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1884" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1884" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1884" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1884" s="20">
+        <v>6.8346236500470363</v>
+      </c>
+      <c r="G1884" s="18">
+        <v>0.76639187001379128</v>
+      </c>
+      <c r="H1884" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1884" s="10">
+        <v>5.9406418351084627</v>
+      </c>
+      <c r="J1884" s="10">
+        <v>5.8742876960355126</v>
+      </c>
+    </row>
+    <row r="1885" spans="2:10">
+      <c r="B1885" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1885" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1885" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1885" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1885" s="20">
+        <v>30.866620626174633</v>
+      </c>
+      <c r="G1885" s="18">
+        <v>2.8987547309813095</v>
+      </c>
+      <c r="H1885" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1885" s="10">
+        <v>25.50469722894551</v>
+      </c>
+      <c r="J1885" s="10">
+        <v>24.441010687865251</v>
+      </c>
+    </row>
+    <row r="1886" spans="2:10">
+      <c r="B1886" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1886" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1886" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1886" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1886" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1886" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1886" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1886" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1886" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="2:10">
+      <c r="B1887" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1887" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1887" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1887" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1887" s="20">
+        <v>120.65943473053893</v>
+      </c>
+      <c r="G1887" s="18">
+        <v>3.3621904570162968</v>
+      </c>
+      <c r="H1887" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1887" s="10">
+        <v>92.16905748030679</v>
+      </c>
+      <c r="J1887" s="10">
+        <v>90.106140026656874</v>
+      </c>
+    </row>
+    <row r="1888" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B1888" s="6">
+        <v>43714</v>
+      </c>
+      <c r="C1888" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1888" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1888" s="30">
+        <v>0</v>
+      </c>
+      <c r="F1888" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1888" s="42">
+        <v>0</v>
+      </c>
+      <c r="H1888" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1888" s="11">
+        <v>0</v>
+      </c>
+      <c r="J1888" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="2:10">
+      <c r="B1889" s="5">
+        <v>43715</v>
+      </c>
+      <c r="C1889" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1889" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1889" s="15">
+        <v>0</v>
+      </c>
+      <c r="F1889" s="17">
+        <v>0</v>
+      </c>
+      <c r="G1889" s="12">
+        <v>0</v>
+      </c>
+      <c r="H1889" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1889" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1889" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890" spans="2:10">
+      <c r="B1890" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1890" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1890" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1890" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1890" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1890" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1890" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1890" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891" spans="2:10">
+      <c r="B1891" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1891" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1891" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1891" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1891" s="20">
+        <v>14.147362178458586</v>
+      </c>
+      <c r="G1891" s="18">
+        <v>32.437916815723938</v>
+      </c>
+      <c r="H1891" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1891" s="10">
+        <v>10.596831080936949</v>
+      </c>
+      <c r="J1891" s="10">
+        <v>5.2716108057476792</v>
+      </c>
+    </row>
+    <row r="1892" spans="2:10">
+      <c r="B1892" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1892" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1892" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1892" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1892" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1892" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1892" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1892" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1892" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="2:10">
+      <c r="B1893" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1893" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1893" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1893" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1893" s="20">
+        <v>4.7588421593788706</v>
+      </c>
+      <c r="G1893" s="18">
+        <v>32.499536687880777</v>
+      </c>
+      <c r="H1893" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1893" s="10">
+        <v>2.0346991548634938</v>
+      </c>
+      <c r="J1893" s="10">
+        <v>0.99385159955025815</v>
+      </c>
+    </row>
+    <row r="1894" spans="2:10">
+      <c r="B1894" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1894" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1894" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1894" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1894" s="20">
+        <v>2.825895569120509</v>
+      </c>
+      <c r="G1894" s="18">
+        <v>33.50048677564439</v>
+      </c>
+      <c r="H1894" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1894" s="10">
+        <v>2.7007414829336467</v>
+      </c>
+      <c r="J1894" s="10">
+        <v>1.3144340622577921</v>
+      </c>
+    </row>
+    <row r="1895" spans="2:10">
+      <c r="B1895" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1895" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1895" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1895" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1895" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1895" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1895" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1895" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1895" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896" spans="2:10">
+      <c r="B1896" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1896" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1896" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1896" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1896" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1896" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1896" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1896" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1896" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897" spans="2:10">
+      <c r="B1897" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1897" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1897" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1897" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1897" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1897" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1897" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1897" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1898" spans="2:10">
+      <c r="B1898" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1898" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1898" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1898" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1898" s="20">
+        <v>9.482462804938276</v>
+      </c>
+      <c r="G1898" s="18">
+        <v>23.161532834407396</v>
+      </c>
+      <c r="H1898" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1898" s="10">
+        <v>9.2498221014891158</v>
+      </c>
+      <c r="J1898" s="10">
+        <v>6.0356733398727309</v>
+      </c>
+    </row>
+    <row r="1899" spans="2:10">
+      <c r="B1899" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1899" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1899" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1899" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1899" s="20">
+        <v>10.364769790837236</v>
+      </c>
+      <c r="G1899" s="18">
+        <v>22.345369825556432</v>
+      </c>
+      <c r="H1899" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1899" s="10">
+        <v>7.9424947962915731</v>
+      </c>
+      <c r="J1899" s="10">
+        <v>5.2799650722749449</v>
+      </c>
+    </row>
+    <row r="1900" spans="2:10">
+      <c r="B1900" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1900" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1900" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1900" s="7">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="F1900" s="20">
+        <v>23.174032677687528</v>
+      </c>
+      <c r="G1900" s="18">
+        <v>21.497287510304261</v>
+      </c>
+      <c r="H1900" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1900" s="10">
+        <v>21.861434181717041</v>
+      </c>
+      <c r="J1900" s="10">
+        <v>14.424796219975049</v>
+      </c>
+    </row>
+    <row r="1901" spans="2:10">
+      <c r="B1901" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1901" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1901" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1901" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1901" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1901" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1901" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1901" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1901" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="2:10">
+      <c r="B1902" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1902" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1902" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1902" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1902" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1902" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1902" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1902" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1902" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="2:10">
+      <c r="B1903" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1903" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1903" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1903" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1903" s="20">
+        <v>22.154814563522891</v>
+      </c>
+      <c r="G1903" s="18">
+        <v>27.207394851364029</v>
+      </c>
+      <c r="H1903" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1903" s="10">
+        <v>16.425815526884865</v>
+      </c>
+      <c r="J1903" s="10">
+        <v>9.9802975320685459</v>
+      </c>
+    </row>
+    <row r="1904" spans="2:10">
+      <c r="B1904" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1904" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1904" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1904" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1904" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1904" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1904" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1904" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1904" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="2:10">
+      <c r="B1905" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1905" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1905" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1905" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1905" s="20">
+        <v>12.325021283782338</v>
+      </c>
+      <c r="G1905" s="18">
+        <v>24.036182738173324</v>
+      </c>
+      <c r="H1905" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1905" s="10">
+        <v>10.424538571983168</v>
+      </c>
+      <c r="J1905" s="10">
+        <v>6.6652018922061878</v>
+      </c>
+    </row>
+    <row r="1906" spans="2:10">
+      <c r="B1906" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1906" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1906" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1906" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1906" s="20">
+        <v>9.4438841861690168</v>
+      </c>
+      <c r="G1906" s="18">
+        <v>23.762142045875123</v>
+      </c>
+      <c r="H1906" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1906" s="10">
+        <v>10.149026526278004</v>
+      </c>
+      <c r="J1906" s="10">
+        <v>6.4861762287052729</v>
+      </c>
+    </row>
+    <row r="1907" spans="2:10">
+      <c r="B1907" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1907" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1907" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1907" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1907" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1907" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1907" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1907" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1908" spans="2:10">
+      <c r="B1908" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1908" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1908" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1908" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1908" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1908" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1908" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1908" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1909" spans="2:10">
+      <c r="B1909" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1909" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1909" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1909" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1909" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1909" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1909" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1909" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1910" spans="2:10">
+      <c r="B1910" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1910" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1910" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1910" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1910" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1910" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1910" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1910" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1910" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1911" spans="2:10">
+      <c r="B1911" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1911" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1911" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1911" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1911" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1911" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1911" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1911" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1911" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1912" spans="2:10">
+      <c r="B1912" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1912" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1912" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1912" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1912" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1912" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1912" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1912" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1912" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1913" spans="2:10">
+      <c r="B1913" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1913" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1913" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1913" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1913" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1913" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1913" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1913" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1913" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1914" spans="2:10">
+      <c r="B1914" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1914" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1914" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1914" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1914" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1914" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1914" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1914" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1914" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1915" spans="2:10">
+      <c r="B1915" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1915" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1915" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1915" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1915" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1915" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1915" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1915" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1915" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916" spans="2:10">
+      <c r="B1916" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1916" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1916" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1916" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1916" s="20">
+        <v>15.303214000290781</v>
+      </c>
+      <c r="G1916" s="18">
+        <v>4.8442354276117356</v>
+      </c>
+      <c r="H1916" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1916" s="10">
+        <v>11.90507773207454</v>
+      </c>
+      <c r="J1916" s="10">
+        <v>11.085656949554489</v>
+      </c>
+    </row>
+    <row r="1917" spans="2:10">
+      <c r="B1917" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1917" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1917" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1917" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1917" s="20">
+        <v>11.071724958087788</v>
+      </c>
+      <c r="G1917" s="18">
+        <v>4.6684607055160683</v>
+      </c>
+      <c r="H1917" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1917" s="10">
+        <v>7.6321305040465921</v>
+      </c>
+      <c r="J1917" s="10">
+        <v>7.1362187846984684</v>
+      </c>
+    </row>
+    <row r="1918" spans="2:10">
+      <c r="B1918" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1918" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1918" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1918" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1918" s="20">
+        <v>36.560149439865199</v>
+      </c>
+      <c r="G1918" s="18">
+        <v>4.0917454279497321</v>
+      </c>
+      <c r="H1918" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1918" s="10">
+        <v>25.635947130244141</v>
+      </c>
+      <c r="J1918" s="10">
+        <v>24.139851110349937</v>
+      </c>
+    </row>
+    <row r="1919" spans="2:10">
+      <c r="B1919" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1919" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1919" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1919" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1919" s="20">
+        <v>15.44209635670647</v>
+      </c>
+      <c r="G1919" s="18">
+        <v>2.4005240048525991</v>
+      </c>
+      <c r="H1919" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1919" s="10">
+        <v>13.008009987821076</v>
+      </c>
+      <c r="J1919" s="10">
+        <v>12.578976333505567</v>
+      </c>
+    </row>
+    <row r="1920" spans="2:10">
+      <c r="B1920" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1920" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1920" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1920" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1920" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1920" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1920" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1920" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1920" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="2:10">
+      <c r="B1921" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1921" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1921" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1921" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1921" s="20">
+        <v>9.3682258436161199</v>
+      </c>
+      <c r="G1921" s="18">
+        <v>3.0867753580142505</v>
+      </c>
+      <c r="H1921" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1921" s="10">
+        <v>9.9714785745725791</v>
+      </c>
+      <c r="J1921" s="10">
+        <v>9.5396089116607499</v>
+      </c>
+    </row>
+    <row r="1922" spans="2:10">
+      <c r="B1922" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1922" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1922" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1922" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1922" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1922" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1922" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1922" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1922" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="2:10">
+      <c r="B1923" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1923" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1923" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1923" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1923" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1923" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1923" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1923" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1923" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="2:10">
+      <c r="B1924" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1924" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1924" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1924" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1924" s="20">
+        <v>8.4894668018038217</v>
+      </c>
+      <c r="G1924" s="18">
+        <v>3.3468407383626442</v>
+      </c>
+      <c r="H1924" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1924" s="10">
+        <v>0.28919996827491051</v>
+      </c>
+      <c r="J1924" s="10">
+        <v>0.2741245833399486</v>
+      </c>
+    </row>
+    <row r="1925" spans="2:10">
+      <c r="B1925" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1925" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1925" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1925" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1925" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1925" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1925" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1925" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1925" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="2:10">
+      <c r="B1926" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1926" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1926" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1926" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1926" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1926" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1926" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1926" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1926" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927" spans="2:10">
+      <c r="B1927" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1927" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1927" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1927" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1927" s="20">
+        <v>33.228858984054121</v>
+      </c>
+      <c r="G1927" s="18">
+        <v>4.2499171710249612</v>
+      </c>
+      <c r="H1927" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1927" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1927" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="2:10">
+      <c r="B1928" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1928" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1928" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1928" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1928" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1928" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1928" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1928" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1928" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="2:10">
+      <c r="B1929" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1929" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1929" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1929" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1929" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1929" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1929" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1929" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1929" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="2:10">
+      <c r="B1930" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1930" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1930" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1930" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1930" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1930" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1930" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1930" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1930" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="2:10">
+      <c r="B1931" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1931" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1931" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1931" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1931" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1931" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1931" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1931" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1931" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1932" spans="2:10">
+      <c r="B1932" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1932" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1932" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1932" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1932" s="20">
+        <v>17.041379286149066</v>
+      </c>
+      <c r="G1932" s="18">
+        <v>2.6677380062015033</v>
+      </c>
+      <c r="H1932" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1932" s="10">
+        <v>5.8696642064342601</v>
+      </c>
+      <c r="J1932" s="10">
+        <v>5.6664303107239311</v>
+      </c>
+    </row>
+    <row r="1933" spans="2:10">
+      <c r="B1933" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1933" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1933" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1933" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1933" s="20">
+        <v>32.604544945148021</v>
+      </c>
+      <c r="G1933" s="18">
+        <v>2.1514997472375796</v>
+      </c>
+      <c r="H1933" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1933" s="10">
+        <v>33.733919274072989</v>
+      </c>
+      <c r="J1933" s="10">
+        <v>32.723185739221947</v>
+      </c>
+    </row>
+    <row r="1934" spans="2:10">
+      <c r="B1934" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1934" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1934" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1934" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1934" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1934" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1934" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1934" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1934" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1935" spans="2:10">
+      <c r="B1935" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1935" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1935" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1935" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1935" s="20">
+        <v>6.8346236500470363</v>
+      </c>
+      <c r="G1935" s="18">
+        <v>0.76639187001379128</v>
+      </c>
+      <c r="H1935" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1935" s="10">
+        <v>5.9406418351084627</v>
+      </c>
+      <c r="J1935" s="10">
+        <v>5.8742876960355126</v>
+      </c>
+    </row>
+    <row r="1936" spans="2:10">
+      <c r="B1936" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1936" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1936" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1936" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1936" s="20">
+        <v>30.866620626174633</v>
+      </c>
+      <c r="G1936" s="18">
+        <v>2.8987547309813095</v>
+      </c>
+      <c r="H1936" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1936" s="10">
+        <v>25.50469722894551</v>
+      </c>
+      <c r="J1936" s="10">
+        <v>24.441010687865251</v>
+      </c>
+    </row>
+    <row r="1937" spans="2:10">
+      <c r="B1937" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1937" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1937" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1937" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1937" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1937" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1937" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1937" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1937" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1938" spans="2:10">
+      <c r="B1938" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1938" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1938" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1938" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1938" s="20">
+        <v>120.65943473053893</v>
+      </c>
+      <c r="G1938" s="18">
+        <v>3.3621904570162968</v>
+      </c>
+      <c r="H1938" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1938" s="10">
+        <v>92.16905748030679</v>
+      </c>
+      <c r="J1938" s="10">
+        <v>90.106140026656874</v>
+      </c>
+    </row>
+    <row r="1939" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B1939" s="6">
+        <v>43715</v>
+      </c>
+      <c r="C1939" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1939" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1939" s="30">
+        <v>0</v>
+      </c>
+      <c r="F1939" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1939" s="42">
+        <v>0</v>
+      </c>
+      <c r="H1939" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1939" s="11">
+        <v>0</v>
+      </c>
+      <c r="J1939" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940" spans="2:10">
+      <c r="B1940" s="5">
+        <v>43716</v>
+      </c>
+      <c r="C1940" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1940" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1940" s="15">
+        <v>0</v>
+      </c>
+      <c r="F1940" s="17">
+        <v>0</v>
+      </c>
+      <c r="G1940" s="12">
+        <v>0</v>
+      </c>
+      <c r="H1940" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1940" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1940" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941" spans="2:10">
+      <c r="B1941" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1941" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1941" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1941" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1941" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1941" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1941" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1941" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1941" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1942" spans="2:10">
+      <c r="B1942" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1942" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1942" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1942" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1942" s="20">
+        <v>14.147362178458586</v>
+      </c>
+      <c r="G1942" s="18">
+        <v>32.437916815723938</v>
+      </c>
+      <c r="H1942" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1942" s="10">
+        <v>10.596831080936949</v>
+      </c>
+      <c r="J1942" s="10">
+        <v>5.2716108057476792</v>
+      </c>
+    </row>
+    <row r="1943" spans="2:10">
+      <c r="B1943" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1943" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1943" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1943" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1943" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1943" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1943" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1943" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1943" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="2:10">
+      <c r="B1944" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1944" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1944" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1944" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1944" s="20">
+        <v>4.7588421593788706</v>
+      </c>
+      <c r="G1944" s="18">
+        <v>32.499536687880777</v>
+      </c>
+      <c r="H1944" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1944" s="10">
+        <v>2.0346991548634938</v>
+      </c>
+      <c r="J1944" s="10">
+        <v>0.99385159955025815</v>
+      </c>
+    </row>
+    <row r="1945" spans="2:10">
+      <c r="B1945" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1945" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1945" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1945" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1945" s="20">
+        <v>2.825895569120509</v>
+      </c>
+      <c r="G1945" s="18">
+        <v>33.50048677564439</v>
+      </c>
+      <c r="H1945" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1945" s="10">
+        <v>2.7007414829336467</v>
+      </c>
+      <c r="J1945" s="10">
+        <v>1.3144340622577921</v>
+      </c>
+    </row>
+    <row r="1946" spans="2:10">
+      <c r="B1946" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1946" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1946" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1946" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1946" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1946" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1946" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1946" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1946" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="2:10">
+      <c r="B1947" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1947" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1947" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1947" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1947" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1947" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1947" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1947" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1947" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948" spans="2:10">
+      <c r="B1948" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1948" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1948" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1948" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1948" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1948" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1948" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1948" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1948" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949" spans="2:10">
+      <c r="B1949" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1949" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1949" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1949" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1949" s="20">
+        <v>9.482462804938276</v>
+      </c>
+      <c r="G1949" s="18">
+        <v>23.161532834407396</v>
+      </c>
+      <c r="H1949" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1949" s="10">
+        <v>9.2498221014891158</v>
+      </c>
+      <c r="J1949" s="10">
+        <v>6.0356733398727309</v>
+      </c>
+    </row>
+    <row r="1950" spans="2:10">
+      <c r="B1950" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1950" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1950" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1950" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1950" s="20">
+        <v>10.364769790837236</v>
+      </c>
+      <c r="G1950" s="18">
+        <v>22.345369825556432</v>
+      </c>
+      <c r="H1950" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1950" s="10">
+        <v>7.9424947962915731</v>
+      </c>
+      <c r="J1950" s="10">
+        <v>5.2799650722749449</v>
+      </c>
+    </row>
+    <row r="1951" spans="2:10">
+      <c r="B1951" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1951" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1951" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1951" s="7">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="F1951" s="20">
+        <v>23.174032677687528</v>
+      </c>
+      <c r="G1951" s="18">
+        <v>21.497287510304261</v>
+      </c>
+      <c r="H1951" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1951" s="10">
+        <v>21.861434181717041</v>
+      </c>
+      <c r="J1951" s="10">
+        <v>14.424796219975049</v>
+      </c>
+    </row>
+    <row r="1952" spans="2:10">
+      <c r="B1952" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1952" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1952" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1952" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1952" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1952" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1952" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1952" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1952" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953" spans="2:10">
+      <c r="B1953" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1953" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1953" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1953" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1953" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1953" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1953" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1953" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1953" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1954" spans="2:10">
+      <c r="B1954" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1954" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1954" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1954" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1954" s="20">
+        <v>22.154814563522891</v>
+      </c>
+      <c r="G1954" s="18">
+        <v>27.207394851364029</v>
+      </c>
+      <c r="H1954" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1954" s="10">
+        <v>16.425815526884865</v>
+      </c>
+      <c r="J1954" s="10">
+        <v>9.9802975320685459</v>
+      </c>
+    </row>
+    <row r="1955" spans="2:10">
+      <c r="B1955" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1955" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1955" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1955" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1955" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1955" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1955" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1955" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1955" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1956" spans="2:10">
+      <c r="B1956" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1956" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1956" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1956" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1956" s="20">
+        <v>12.325021283782338</v>
+      </c>
+      <c r="G1956" s="18">
+        <v>24.036182738173324</v>
+      </c>
+      <c r="H1956" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1956" s="10">
+        <v>10.424538571983168</v>
+      </c>
+      <c r="J1956" s="10">
+        <v>6.6652018922061878</v>
+      </c>
+    </row>
+    <row r="1957" spans="2:10">
+      <c r="B1957" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1957" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1957" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1957" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1957" s="20">
+        <v>9.4438841861690168</v>
+      </c>
+      <c r="G1957" s="18">
+        <v>23.762142045875123</v>
+      </c>
+      <c r="H1957" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1957" s="10">
+        <v>10.149026526278004</v>
+      </c>
+      <c r="J1957" s="10">
+        <v>6.4861762287052729</v>
+      </c>
+    </row>
+    <row r="1958" spans="2:10">
+      <c r="B1958" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1958" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1958" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1958" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1958" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1958" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1958" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1958" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1958" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1959" spans="2:10">
+      <c r="B1959" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1959" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1959" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1959" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1959" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1959" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1959" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1959" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1959" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960" spans="2:10">
+      <c r="B1960" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1960" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1960" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1960" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1960" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1960" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1960" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1960" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1960" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1961" spans="2:10">
+      <c r="B1961" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1961" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1961" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1961" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1961" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1961" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1961" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1961" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1961" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962" spans="2:10">
+      <c r="B1962" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1962" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1962" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1962" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1962" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1962" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1962" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1962" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1962" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963" spans="2:10">
+      <c r="B1963" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1963" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1963" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1963" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1963" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1963" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1963" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1963" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1963" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964" spans="2:10">
+      <c r="B1964" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1964" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1964" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1964" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1964" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1964" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1964" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1964" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1964" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965" spans="2:10">
+      <c r="B1965" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1965" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1965" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1965" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1965" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1965" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1965" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1965" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1965" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1966" spans="2:10">
+      <c r="B1966" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1966" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1966" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1966" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1966" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1966" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1966" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1966" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1966" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1967" spans="2:10">
+      <c r="B1967" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1967" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1967" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1967" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1967" s="20">
+        <v>15.303214000290781</v>
+      </c>
+      <c r="G1967" s="18">
+        <v>4.8442354276117356</v>
+      </c>
+      <c r="H1967" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1967" s="10">
+        <v>11.90507773207454</v>
+      </c>
+      <c r="J1967" s="10">
+        <v>11.085656949554489</v>
+      </c>
+    </row>
+    <row r="1968" spans="2:10">
+      <c r="B1968" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1968" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1968" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1968" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1968" s="20">
+        <v>11.071724958087788</v>
+      </c>
+      <c r="G1968" s="18">
+        <v>4.6684607055160683</v>
+      </c>
+      <c r="H1968" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1968" s="10">
+        <v>7.6321305040465921</v>
+      </c>
+      <c r="J1968" s="10">
+        <v>7.1362187846984684</v>
+      </c>
+    </row>
+    <row r="1969" spans="2:10">
+      <c r="B1969" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1969" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1969" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1969" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1969" s="20">
+        <v>36.560149439865199</v>
+      </c>
+      <c r="G1969" s="18">
+        <v>4.0917454279497321</v>
+      </c>
+      <c r="H1969" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1969" s="10">
+        <v>25.635947130244141</v>
+      </c>
+      <c r="J1969" s="10">
+        <v>24.139851110349937</v>
+      </c>
+    </row>
+    <row r="1970" spans="2:10">
+      <c r="B1970" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1970" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1970" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1970" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1970" s="20">
+        <v>15.44209635670647</v>
+      </c>
+      <c r="G1970" s="18">
+        <v>2.4005240048525991</v>
+      </c>
+      <c r="H1970" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1970" s="10">
+        <v>13.008009987821076</v>
+      </c>
+      <c r="J1970" s="10">
+        <v>12.578976333505567</v>
+      </c>
+    </row>
+    <row r="1971" spans="2:10">
+      <c r="B1971" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1971" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1971" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1971" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1971" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1971" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1971" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1971" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1971" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="2:10">
+      <c r="B1972" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1972" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1972" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1972" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1972" s="20">
+        <v>9.3682258436161199</v>
+      </c>
+      <c r="G1972" s="18">
+        <v>3.0867753580142505</v>
+      </c>
+      <c r="H1972" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1972" s="10">
+        <v>9.9714785745725791</v>
+      </c>
+      <c r="J1972" s="10">
+        <v>9.5396089116607499</v>
+      </c>
+    </row>
+    <row r="1973" spans="2:10">
+      <c r="B1973" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1973" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1973" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1973" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1973" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1973" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1973" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1973" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1973" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1974" spans="2:10">
+      <c r="B1974" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1974" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1974" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1974" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1974" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1974" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1974" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1974" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1974" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975" spans="2:10">
+      <c r="B1975" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1975" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1975" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1975" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1975" s="20">
+        <v>8.4894668018038217</v>
+      </c>
+      <c r="G1975" s="18">
+        <v>3.3468407383626442</v>
+      </c>
+      <c r="H1975" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1975" s="10">
+        <v>0.28919996827491051</v>
+      </c>
+      <c r="J1975" s="10">
+        <v>0.2741245833399486</v>
+      </c>
+    </row>
+    <row r="1976" spans="2:10">
+      <c r="B1976" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1976" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1976" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1976" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1976" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1976" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1976" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1976" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1976" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1977" spans="2:10">
+      <c r="B1977" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1977" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1977" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1977" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1977" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1977" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1977" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1977" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1977" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1978" spans="2:10">
+      <c r="B1978" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1978" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1978" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1978" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1978" s="20">
+        <v>33.228858984054121</v>
+      </c>
+      <c r="G1978" s="18">
+        <v>4.2499171710249612</v>
+      </c>
+      <c r="H1978" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1978" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1978" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1979" spans="2:10">
+      <c r="B1979" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1979" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1979" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1979" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1979" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1979" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1979" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1979" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1979" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1980" spans="2:10">
+      <c r="B1980" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1980" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1980" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1980" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1980" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1980" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1980" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1980" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1980" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981" spans="2:10">
+      <c r="B1981" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1981" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1981" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1981" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1981" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1981" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1981" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1981" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1981" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1982" spans="2:10">
+      <c r="B1982" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1982" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1982" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1982" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1982" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1982" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1982" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1982" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1982" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1983" spans="2:10">
+      <c r="B1983" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1983" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1983" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1983" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1983" s="20">
+        <v>17.041379286149066</v>
+      </c>
+      <c r="G1983" s="18">
+        <v>2.6677380062015033</v>
+      </c>
+      <c r="H1983" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1983" s="10">
+        <v>5.8696642064342601</v>
+      </c>
+      <c r="J1983" s="10">
+        <v>5.6664303107239311</v>
+      </c>
+    </row>
+    <row r="1984" spans="2:10">
+      <c r="B1984" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1984" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1984" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1984" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1984" s="20">
+        <v>32.604544945148021</v>
+      </c>
+      <c r="G1984" s="18">
+        <v>2.1514997472375796</v>
+      </c>
+      <c r="H1984" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1984" s="10">
+        <v>33.733919274072989</v>
+      </c>
+      <c r="J1984" s="10">
+        <v>32.723185739221947</v>
+      </c>
+    </row>
+    <row r="1985" spans="2:10">
+      <c r="B1985" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1985" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1985" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1985" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1985" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1985" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1985" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1985" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1985" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1986" spans="2:10">
+      <c r="B1986" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1986" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1986" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1986" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1986" s="20">
+        <v>6.8346236500470363</v>
+      </c>
+      <c r="G1986" s="18">
+        <v>0.76639187001379128</v>
+      </c>
+      <c r="H1986" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1986" s="10">
+        <v>5.9406418351084627</v>
+      </c>
+      <c r="J1986" s="10">
+        <v>5.8742876960355126</v>
+      </c>
+    </row>
+    <row r="1987" spans="2:10">
+      <c r="B1987" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1987" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1987" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1987" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1987" s="20">
+        <v>30.866620626174633</v>
+      </c>
+      <c r="G1987" s="18">
+        <v>2.8987547309813095</v>
+      </c>
+      <c r="H1987" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1987" s="10">
+        <v>25.50469722894551</v>
+      </c>
+      <c r="J1987" s="10">
+        <v>24.441010687865251</v>
+      </c>
+    </row>
+    <row r="1988" spans="2:10">
+      <c r="B1988" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1988" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1988" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1988" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1988" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1988" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1988" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1988" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1988" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1989" spans="2:10">
+      <c r="B1989" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1989" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1989" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1989" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1989" s="20">
+        <v>120.65943473053893</v>
+      </c>
+      <c r="G1989" s="18">
+        <v>3.3621904570162968</v>
+      </c>
+      <c r="H1989" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1989" s="10">
+        <v>92.16905748030679</v>
+      </c>
+      <c r="J1989" s="10">
+        <v>90.106140026656874</v>
+      </c>
+    </row>
+    <row r="1990" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B1990" s="6">
+        <v>43716</v>
+      </c>
+      <c r="C1990" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1990" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1990" s="30">
+        <v>0</v>
+      </c>
+      <c r="F1990" s="31">
+        <v>0</v>
+      </c>
+      <c r="G1990" s="42">
+        <v>0</v>
+      </c>
+      <c r="H1990" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1990" s="11">
+        <v>0</v>
+      </c>
+      <c r="J1990" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1991" spans="2:10">
+      <c r="B1991" s="5">
+        <v>43717</v>
+      </c>
+      <c r="C1991" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1991" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1991" s="15">
+        <v>0</v>
+      </c>
+      <c r="F1991" s="17">
+        <v>0</v>
+      </c>
+      <c r="G1991" s="12">
+        <v>0</v>
+      </c>
+      <c r="H1991" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1991" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1991" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1992" spans="2:10">
+      <c r="B1992" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1992" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1992" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1992" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1992" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1992" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1992" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1992" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1992" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1993" spans="2:10">
+      <c r="B1993" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1993" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1993" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1993" s="20">
+        <v>14.147362178458586</v>
+      </c>
+      <c r="G1993" s="18">
+        <v>32.437916815723938</v>
+      </c>
+      <c r="H1993" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1993" s="10">
+        <v>10.596831080936949</v>
+      </c>
+      <c r="J1993" s="10">
+        <v>5.2716108057476792</v>
+      </c>
+    </row>
+    <row r="1994" spans="2:10">
+      <c r="B1994" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1994" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1994" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1994" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1994" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1994" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1994" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1994" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1994" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1995" spans="2:10">
+      <c r="B1995" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1995" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1995" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1995" s="7">
+        <v>24</v>
+      </c>
+      <c r="F1995" s="20">
+        <v>4.7588421593788706</v>
+      </c>
+      <c r="G1995" s="18">
+        <v>32.499536687880777</v>
+      </c>
+      <c r="H1995" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1995" s="10">
+        <v>2.0346991548634938</v>
+      </c>
+      <c r="J1995" s="10">
+        <v>0.99385159955025815</v>
+      </c>
+    </row>
+    <row r="1996" spans="2:10">
+      <c r="B1996" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1996" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1996" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1996" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F1996" s="20">
+        <v>2.825895569120509</v>
+      </c>
+      <c r="G1996" s="18">
+        <v>33.50048677564439</v>
+      </c>
+      <c r="H1996" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1996" s="10">
+        <v>2.7007414829336467</v>
+      </c>
+      <c r="J1996" s="10">
+        <v>1.3144340622577921</v>
+      </c>
+    </row>
+    <row r="1997" spans="2:10">
+      <c r="B1997" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1997" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1997" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1997" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1997" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1997" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1997" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1997" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1997" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1998" spans="2:10">
+      <c r="B1998" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1998" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1998" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1998" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1998" s="20">
+        <v>0</v>
+      </c>
+      <c r="G1998" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1998" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1998" s="10">
+        <v>0</v>
+      </c>
+      <c r="J1998" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1999" spans="2:10">
+      <c r="B1999" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C1999" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1999" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1999" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1999" s="10">
+        <v>0</v>
+      </c>
+      <c r="G1999" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1999" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1999" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1999" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2000" spans="2:10">
+      <c r="B2000" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2000" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2000" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2000" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2000" s="20">
+        <v>9.482462804938276</v>
+      </c>
+      <c r="G2000" s="18">
+        <v>23.161532834407396</v>
+      </c>
+      <c r="H2000" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2000" s="10">
+        <v>9.2498221014891158</v>
+      </c>
+      <c r="J2000" s="10">
+        <v>6.0356733398727309</v>
+      </c>
+    </row>
+    <row r="2001" spans="2:10">
+      <c r="B2001" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2001" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2001" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2001" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2001" s="20">
+        <v>10.364769790837236</v>
+      </c>
+      <c r="G2001" s="18">
+        <v>22.345369825556432</v>
+      </c>
+      <c r="H2001" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2001" s="10">
+        <v>7.9424947962915731</v>
+      </c>
+      <c r="J2001" s="10">
+        <v>5.2799650722749449</v>
+      </c>
+    </row>
+    <row r="2002" spans="2:10">
+      <c r="B2002" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2002" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2002" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2002" s="7">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="F2002" s="20">
+        <v>23.174032677687528</v>
+      </c>
+      <c r="G2002" s="18">
+        <v>21.497287510304261</v>
+      </c>
+      <c r="H2002" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2002" s="10">
+        <v>21.861434181717041</v>
+      </c>
+      <c r="J2002" s="10">
+        <v>14.424796219975049</v>
+      </c>
+    </row>
+    <row r="2003" spans="2:10">
+      <c r="B2003" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2003" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2003" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2003" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2003" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2003" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2003" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2003" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2003" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2004" spans="2:10">
+      <c r="B2004" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2004" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2004" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2004" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2004" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2004" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2004" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2004" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2004" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2005" spans="2:10">
+      <c r="B2005" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2005" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2005" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2005" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2005" s="20">
+        <v>22.154814563522891</v>
+      </c>
+      <c r="G2005" s="18">
+        <v>27.207394851364029</v>
+      </c>
+      <c r="H2005" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2005" s="10">
+        <v>16.425815526884865</v>
+      </c>
+      <c r="J2005" s="10">
+        <v>9.9802975320685459</v>
+      </c>
+    </row>
+    <row r="2006" spans="2:10">
+      <c r="B2006" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2006" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2006" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2006" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2006" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2006" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2006" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2006" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2006" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2007" spans="2:10">
+      <c r="B2007" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2007" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2007" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2007" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F2007" s="20">
+        <v>12.325021283782338</v>
+      </c>
+      <c r="G2007" s="18">
+        <v>24.036182738173324</v>
+      </c>
+      <c r="H2007" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2007" s="10">
+        <v>10.424538571983168</v>
+      </c>
+      <c r="J2007" s="10">
+        <v>6.6652018922061878</v>
+      </c>
+    </row>
+    <row r="2008" spans="2:10">
+      <c r="B2008" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2008" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2008" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2008" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2008" s="20">
+        <v>9.4438841861690168</v>
+      </c>
+      <c r="G2008" s="18">
+        <v>23.762142045875123</v>
+      </c>
+      <c r="H2008" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2008" s="10">
+        <v>10.149026526278004</v>
+      </c>
+      <c r="J2008" s="10">
+        <v>6.4861762287052729</v>
+      </c>
+    </row>
+    <row r="2009" spans="2:10">
+      <c r="B2009" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2009" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2009" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2009" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2009" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2009" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2009" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2009" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2009" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2010" spans="2:10">
+      <c r="B2010" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2010" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2010" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2010" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2010" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2010" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2010" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2010" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2010" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2011" spans="2:10">
+      <c r="B2011" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2011" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2011" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2011" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2011" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2011" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2011" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2011" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2011" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2012" spans="2:10">
+      <c r="B2012" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2012" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2012" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2012" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2012" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2012" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2012" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2012" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2012" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2013" spans="2:10">
+      <c r="B2013" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2013" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2013" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2013" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2013" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2013" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2013" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2013" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2013" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2014" spans="2:10">
+      <c r="B2014" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2014" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2014" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2014" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2014" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2014" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2014" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2014" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2014" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2015" spans="2:10">
+      <c r="B2015" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2015" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2015" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2015" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2015" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2015" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2015" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2015" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2015" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2016" spans="2:10">
+      <c r="B2016" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2016" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2016" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2016" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2016" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2016" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2016" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2016" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2016" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2017" spans="2:10">
+      <c r="B2017" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2017" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2017" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2017" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2017" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2017" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2017" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2017" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2017" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="2:10">
+      <c r="B2018" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2018" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2018" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2018" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2018" s="20">
+        <v>15.303214000290781</v>
+      </c>
+      <c r="G2018" s="18">
+        <v>4.8442354276117356</v>
+      </c>
+      <c r="H2018" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2018" s="10">
+        <v>11.90507773207454</v>
+      </c>
+      <c r="J2018" s="10">
+        <v>11.085656949554489</v>
+      </c>
+    </row>
+    <row r="2019" spans="2:10">
+      <c r="B2019" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2019" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2019" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2019" s="7">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F2019" s="20">
+        <v>11.071724958087788</v>
+      </c>
+      <c r="G2019" s="18">
+        <v>4.6684607055160683</v>
+      </c>
+      <c r="H2019" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2019" s="10">
+        <v>7.6321305040465921</v>
+      </c>
+      <c r="J2019" s="10">
+        <v>7.1362187846984684</v>
+      </c>
+    </row>
+    <row r="2020" spans="2:10">
+      <c r="B2020" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2020" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2020" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2020" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2020" s="20">
+        <v>36.560149439865199</v>
+      </c>
+      <c r="G2020" s="18">
+        <v>4.0917454279497321</v>
+      </c>
+      <c r="H2020" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2020" s="10">
+        <v>25.635947130244141</v>
+      </c>
+      <c r="J2020" s="10">
+        <v>24.139851110349937</v>
+      </c>
+    </row>
+    <row r="2021" spans="2:10">
+      <c r="B2021" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2021" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2021" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2021" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2021" s="20">
+        <v>15.44209635670647</v>
+      </c>
+      <c r="G2021" s="18">
+        <v>2.4005240048525991</v>
+      </c>
+      <c r="H2021" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2021" s="10">
+        <v>13.008009987821076</v>
+      </c>
+      <c r="J2021" s="10">
+        <v>12.578976333505567</v>
+      </c>
+    </row>
+    <row r="2022" spans="2:10">
+      <c r="B2022" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2022" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2022" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2022" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2022" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2022" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2022" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2022" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2022" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2023" spans="2:10">
+      <c r="B2023" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2023" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2023" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2023" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2023" s="20">
+        <v>9.3682258436161199</v>
+      </c>
+      <c r="G2023" s="18">
+        <v>3.0867753580142505</v>
+      </c>
+      <c r="H2023" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2023" s="10">
+        <v>9.9714785745725791</v>
+      </c>
+      <c r="J2023" s="10">
+        <v>9.5396089116607499</v>
+      </c>
+    </row>
+    <row r="2024" spans="2:10">
+      <c r="B2024" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2024" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2024" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2024" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2024" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2024" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2024" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2024" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2024" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2025" spans="2:10">
+      <c r="B2025" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2025" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2025" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2025" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2025" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2025" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2025" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2025" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2025" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2026" spans="2:10">
+      <c r="B2026" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2026" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2026" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2026" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2026" s="20">
+        <v>8.4894668018038217</v>
+      </c>
+      <c r="G2026" s="18">
+        <v>3.3468407383626442</v>
+      </c>
+      <c r="H2026" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2026" s="10">
+        <v>0.28919996827491051</v>
+      </c>
+      <c r="J2026" s="10">
+        <v>0.2741245833399486</v>
+      </c>
+    </row>
+    <row r="2027" spans="2:10">
+      <c r="B2027" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2027" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2027" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2027" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2027" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2027" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2027" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2027" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2027" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2028" spans="2:10">
+      <c r="B2028" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2028" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2028" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2028" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2028" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2028" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2028" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2028" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2028" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2029" spans="2:10">
+      <c r="B2029" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2029" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2029" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2029" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2029" s="20">
+        <v>33.228858984054121</v>
+      </c>
+      <c r="G2029" s="18">
+        <v>4.2499171710249612</v>
+      </c>
+      <c r="H2029" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2029" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2029" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2030" spans="2:10">
+      <c r="B2030" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2030" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2030" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2030" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2030" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2030" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2030" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2030" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2030" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2031" spans="2:10">
+      <c r="B2031" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2031" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2031" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2031" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2031" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2031" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2031" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2031" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2031" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2032" spans="2:10">
+      <c r="B2032" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2032" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2032" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2032" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2032" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2032" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2032" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2032" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2032" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2033" spans="2:10">
+      <c r="B2033" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2033" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2033" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2033" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2033" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2033" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2033" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2033" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2033" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2034" spans="2:10">
+      <c r="B2034" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2034" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2034" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2034" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2034" s="20">
+        <v>17.041379286149066</v>
+      </c>
+      <c r="G2034" s="18">
+        <v>2.6677380062015033</v>
+      </c>
+      <c r="H2034" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2034" s="10">
+        <v>5.8696642064342601</v>
+      </c>
+      <c r="J2034" s="10">
+        <v>5.6664303107239311</v>
+      </c>
+    </row>
+    <row r="2035" spans="2:10">
+      <c r="B2035" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2035" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2035" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2035" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2035" s="20">
+        <v>32.604544945148021</v>
+      </c>
+      <c r="G2035" s="18">
+        <v>2.1514997472375796</v>
+      </c>
+      <c r="H2035" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2035" s="10">
+        <v>33.733919274072989</v>
+      </c>
+      <c r="J2035" s="10">
+        <v>32.723185739221947</v>
+      </c>
+    </row>
+    <row r="2036" spans="2:10">
+      <c r="B2036" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2036" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2036" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2036" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2036" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2036" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2036" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2036" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2036" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2037" spans="2:10">
+      <c r="B2037" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2037" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2037" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2037" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2037" s="20">
+        <v>6.8346236500470363</v>
+      </c>
+      <c r="G2037" s="18">
+        <v>0.76639187001379128</v>
+      </c>
+      <c r="H2037" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2037" s="10">
+        <v>5.9406418351084627</v>
+      </c>
+      <c r="J2037" s="10">
+        <v>5.8742876960355126</v>
+      </c>
+    </row>
+    <row r="2038" spans="2:10">
+      <c r="B2038" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2038" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2038" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2038" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2038" s="20">
+        <v>30.866620626174633</v>
+      </c>
+      <c r="G2038" s="18">
+        <v>2.8987547309813095</v>
+      </c>
+      <c r="H2038" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2038" s="10">
+        <v>25.50469722894551</v>
+      </c>
+      <c r="J2038" s="10">
+        <v>24.441010687865251</v>
+      </c>
+    </row>
+    <row r="2039" spans="2:10">
+      <c r="B2039" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2039" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2039" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2039" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2039" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2039" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2039" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2039" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2039" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2040" spans="2:10">
+      <c r="B2040" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2040" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2040" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2040" s="7">
+        <v>24</v>
+      </c>
+      <c r="F2040" s="20">
+        <v>120.65943473053893</v>
+      </c>
+      <c r="G2040" s="18">
+        <v>3.3621904570162968</v>
+      </c>
+      <c r="H2040" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2040" s="10">
+        <v>92.16905748030679</v>
+      </c>
+      <c r="J2040" s="10">
+        <v>90.106140026656874</v>
+      </c>
+    </row>
+    <row r="2041" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B2041" s="6">
+        <v>43717</v>
+      </c>
+      <c r="C2041" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2041" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2041" s="30">
+        <v>0</v>
+      </c>
+      <c r="F2041" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2041" s="42">
+        <v>0</v>
+      </c>
+      <c r="H2041" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2041" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2041" s="11">
         <v>0</v>
       </c>
     </row>
